--- a/data/TopOnePercent/Jiangsu Normal University.xlsx
+++ b/data/TopOnePercent/Jiangsu Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1445.0</v>
+        <v>1354.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>20358.0</v>
+        <v>19313.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>14.09</v>
+        <v>14.26</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>420.0</v>
+        <v>428.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>4483.0</v>
+        <v>4419.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10.67</v>
+        <v>10.32</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,22 +228,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>4943.0</v>
+        <v>4836.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>52094.0</v>
+        <v>50996.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10.54</v>
+        <v>10.55</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
